--- a/資料庫表格_final.xlsx
+++ b/資料庫表格_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\030\Desktop\Artists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malaguagua\Desktop\專題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B779F5E8-25C0-4860-836D-8085C9A8946D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BF4A01-308D-402F-BB97-A83378A559DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14388" yWindow="0" windowWidth="8748" windowHeight="12336" firstSheet="6" activeTab="6" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="198">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -820,6 +820,10 @@
   </si>
   <si>
     <t>CN_ID更改為COL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會用CHECK確保不會同時有/沒有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1397,18 +1401,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1F1047-158D-496F-8432-5EE22D9F1B80}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.625" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1712,7 +1716,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>116</v>
       </c>
@@ -1793,17 +1797,17 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1983,7 +1987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.6">
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>151</v>
       </c>
@@ -2031,17 +2035,17 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2215,7 +2219,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,18 +2231,18 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2291,7 +2295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>106</v>
       </c>
@@ -2314,7 +2318,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="5" t="s">
         <v>119</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="5" t="s">
         <v>120</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="5" t="s">
         <v>122</v>
       </c>
@@ -2397,7 +2401,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="16.2">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="16.5">
       <c r="A8" s="5" t="s">
         <v>123</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" ht="16.2">
+    <row r="9" spans="1:8" s="13" customFormat="1" ht="16.5">
       <c r="A9" s="5" t="s">
         <v>124</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.2">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="5" t="s">
         <v>163</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="16.2">
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="16.5">
       <c r="A11" s="5" t="s">
         <v>131</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="16.2">
+    <row r="14" spans="1:8" customFormat="1" ht="16.5">
       <c r="A14" s="5" t="s">
         <v>167</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.2">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="5" t="s">
         <v>127</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>128</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.2">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="5" t="s">
         <v>129</v>
       </c>
@@ -2649,15 +2653,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2731,19 +2735,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4618F401-1467-4C08-8880-A57083708833}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2818,18 +2822,18 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2922,7 +2926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="32" t="s">
         <v>182</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="32" t="s">
         <v>183</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="32" t="s">
         <v>184</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="32" t="s">
         <v>185</v>
       </c>
@@ -3082,19 +3086,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA6804-BB9E-43A9-8B7F-581E4C299FFF}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3123,7 +3127,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.6">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.75">
       <c r="A2" s="31" t="s">
         <v>191</v>
       </c>
@@ -3275,18 +3279,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C8E95C-CD2E-43EE-A649-8817C47B6C27}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
@@ -3340,7 +3344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>141</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="5" t="s">
         <v>140</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="5" t="s">
         <v>139</v>
       </c>
@@ -3400,7 +3404,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="5" t="s">
         <v>138</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
@@ -3508,19 +3512,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CF73E9-2645-4EC5-AEA7-A85E3720DF83}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3606,8 +3610,8 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
+      <c r="D4" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>25</v>
@@ -3615,11 +3619,13 @@
       <c r="F4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>133</v>
+      <c r="A5" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>

--- a/資料庫表格_final.xlsx
+++ b/資料庫表格_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malaguagua\Desktop\專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\030\Desktop\Artists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BF4A01-308D-402F-BB97-A83378A559DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1354F940-18D3-4090-A5FE-4AEC6F26389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="204">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,10 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EN_INTRODUCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,10 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -824,6 +816,38 @@
   </si>
   <si>
     <t>會用CHECK確保不會同時有/沒有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(2,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(4,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式:YYYY，範圍:0000~2100。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式:MM，範圍:1~12。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 OR 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,11 +855,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="00000"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="mm"/>
     <numFmt numFmtId="179" formatCode="yyyy"/>
+    <numFmt numFmtId="180" formatCode="m"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -978,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,6 +1108,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1401,19 +1429,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1F1047-158D-496F-8432-5EE22D9F1B80}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.625" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1449,8 +1477,8 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+      <c r="C2" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1486,7 +1514,7 @@
         <v>55</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1508,7 +1536,7 @@
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1530,7 +1558,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1554,7 +1582,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1">
@@ -1564,8 +1592,8 @@
       <c r="B7" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>13</v>
+      <c r="C7" s="30" t="s">
+        <v>200</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>15</v>
@@ -1575,10 +1603,10 @@
         <v>10594</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1">
@@ -1588,45 +1616,43 @@
       <c r="B8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
+      <c r="C8" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="19">
+      <c r="F8" s="35">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>168</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1650,10 +1676,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1664,18 +1690,18 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1686,10 +1712,10 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1699,8 +1725,8 @@
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
+      <c r="C13" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
@@ -1713,10 +1739,10 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.2">
       <c r="A14" s="5" t="s">
         <v>116</v>
       </c>
@@ -1752,13 +1778,13 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1782,7 +1808,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1797,17 +1823,17 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1839,13 +1865,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+      <c r="C2" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1862,7 +1888,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>60</v>
@@ -1877,12 +1903,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>61</v>
@@ -1900,7 +1926,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>68</v>
@@ -1920,7 +1946,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>62</v>
@@ -1939,12 +1965,12 @@
         <v>55</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>63</v>
@@ -1963,12 +1989,12 @@
         <v>55</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -1987,9 +2013,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75">
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.6">
       <c r="A9" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>102</v>
@@ -2004,7 +2030,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>44</v>
@@ -2035,17 +2061,17 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2077,13 +2103,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+      <c r="C2" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2100,13 +2126,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
+      <c r="C3" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -2126,8 +2152,8 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
+      <c r="C4" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
@@ -2142,7 +2168,7 @@
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>103</v>
@@ -2159,12 +2185,12 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>32</v>
@@ -2181,12 +2207,12 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>70</v>
@@ -2219,7 +2245,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2230,19 +2256,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116F66E-B285-4978-8D07-6049E982F6A1}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2279,8 +2305,8 @@
       <c r="B2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+      <c r="C2" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2295,7 +2321,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.2">
       <c r="A3" s="5" t="s">
         <v>106</v>
       </c>
@@ -2315,10 +2341,10 @@
         <v>55</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2">
       <c r="A4" s="5" t="s">
         <v>119</v>
       </c>
@@ -2335,10 +2361,10 @@
         <v>28</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2">
       <c r="A5" s="5" t="s">
         <v>120</v>
       </c>
@@ -2355,10 +2381,10 @@
         <v>17</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.2">
       <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
@@ -2375,10 +2401,10 @@
         <v>18</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2">
       <c r="A7" s="5" t="s">
         <v>122</v>
       </c>
@@ -2398,18 +2424,18 @@
         <v>54</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="16.2">
       <c r="A8" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
+      <c r="C8" s="30" t="s">
+        <v>200</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -2422,18 +2448,18 @@
         <v>93</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="13" customFormat="1" ht="16.2">
       <c r="A9" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
+      <c r="C9" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -2446,15 +2472,15 @@
         <v>92</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.2">
       <c r="A10" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
@@ -2467,13 +2493,13 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="16.2">
       <c r="A11" s="5" t="s">
         <v>131</v>
       </c>
@@ -2494,7 +2520,7 @@
         <v>55</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2534,12 +2560,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="16.5">
+    <row r="14" spans="1:8" customFormat="1" ht="16.2">
       <c r="A14" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -2550,13 +2576,13 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.2">
       <c r="A15" s="5" t="s">
         <v>127</v>
       </c>
@@ -2576,10 +2602,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.2">
       <c r="A16" s="5" t="s">
         <v>128</v>
       </c>
@@ -2599,7 +2625,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.2">
       <c r="A17" s="5" t="s">
         <v>129</v>
       </c>
@@ -2619,7 +2645,7 @@
         <v>56</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2650,18 +2676,18 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2690,13 +2716,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>169</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2705,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>52</v>
@@ -2713,16 +2739,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2736,18 +2765,18 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2776,13 +2805,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>175</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2791,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>52</v>
@@ -2799,13 +2828,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -2822,18 +2851,18 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2865,13 +2894,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
+      <c r="C2" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
@@ -2888,7 +2917,7 @@
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1">
       <c r="A3" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
@@ -2908,7 +2937,7 @@
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1">
       <c r="A4" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>75</v>
@@ -2926,9 +2955,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.2">
       <c r="A5" s="32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>76</v>
@@ -2943,12 +2972,12 @@
         <v>29</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.2">
       <c r="A6" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>98</v>
@@ -2966,12 +2995,12 @@
         <v>55</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2">
       <c r="A7" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>51</v>
@@ -2983,12 +3012,12 @@
         <v>15</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.2">
       <c r="A8" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>73</v>
@@ -3000,12 +3029,12 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>49</v>
@@ -3022,7 +3051,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>50</v>
@@ -3042,7 +3071,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>44</v>
@@ -3062,7 +3091,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -3087,18 +3116,18 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3127,15 +3156,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.6">
       <c r="A2" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
+      <c r="C2" s="30" t="s">
+        <v>198</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
@@ -3152,7 +3181,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>77</v>
@@ -3171,7 +3200,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3198,7 +3227,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -3220,7 +3249,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>58</v>
@@ -3241,7 +3270,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>44</v>
@@ -3260,12 +3289,12 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3280,17 +3309,17 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
@@ -3323,13 +3352,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+      <c r="C2" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -3344,9 +3373,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.2">
       <c r="A3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>60</v>
@@ -3361,12 +3390,12 @@
         <v>29</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>61</v>
@@ -3381,12 +3410,12 @@
         <v>29</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>64</v>
@@ -3401,12 +3430,12 @@
         <v>65</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.2">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>62</v>
@@ -3424,12 +3453,12 @@
         <v>55</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2">
       <c r="A7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>63</v>
@@ -3447,12 +3476,12 @@
         <v>55</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -3472,7 +3501,7 @@
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>101</v>
@@ -3487,7 +3516,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>44</v>
@@ -3513,18 +3542,18 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3555,13 +3584,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+      <c r="C2" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -3578,13 +3607,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
+      <c r="C3" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -3597,7 +3626,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3607,8 +3636,8 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
+      <c r="C4" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>16</v>
@@ -3620,7 +3649,7 @@
         <v>87</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3630,8 +3659,8 @@
       <c r="B5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
+      <c r="C5" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -3647,7 +3676,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>71</v>

--- a/資料庫表格_final.xlsx
+++ b/資料庫表格_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\030\Desktop\Artists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malaguagua\Desktop\專題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1354F940-18D3-4090-A5FE-4AEC6F26389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BAC56D-6E95-4A7C-AE27-72E2D7D1C81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="2" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="3" r:id="rId1"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DECIMAL(6,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C:\Users\LTU\Desktop\Media\Skrik.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,6 +844,10 @@
   </si>
   <si>
     <t>1 OR 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1429,19 +1429,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1F1047-158D-496F-8432-5EE22D9F1B80}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.625" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1467,18 +1467,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1487,18 +1487,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -1511,18 +1511,18 @@
         <v>45474</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>12</v>
@@ -1536,12 +1536,12 @@
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -1558,42 +1558,42 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>203</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1">
       <c r="A7" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>15</v>
@@ -1603,21 +1603,21 @@
         <v>10594</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -1627,21 +1627,21 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -1649,18 +1649,18 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>9</v>
@@ -1670,16 +1670,16 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1690,18 +1690,18 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1712,42 +1712,42 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="31.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1757,42 +1757,42 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
@@ -1802,13 +1802,13 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1826,14 +1826,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1860,18 +1860,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1880,18 +1880,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -1903,15 +1903,15 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -1939,17 +1939,17 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -1962,18 +1962,18 @@
         <v>45447</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1986,18 +1986,18 @@
         <v>45451</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -2010,15 +2010,15 @@
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75">
       <c r="A9" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -2064,14 +2064,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2098,18 +2098,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2118,60 +2118,60 @@
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -2185,15 +2185,15 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -2207,15 +2207,15 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
@@ -2228,7 +2228,7 @@
         <v>640000</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2245,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2256,19 +2256,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116F66E-B285-4978-8D07-6049E982F6A1}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2295,18 +2295,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2315,18 +2315,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -2338,18 +2338,18 @@
         <v>45474</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -2358,18 +2358,18 @@
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -2381,12 +2381,12 @@
         <v>17</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -2401,41 +2401,41 @@
         <v>18</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="16.5">
+      <c r="A8" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="16.2">
-      <c r="A8" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -2445,21 +2445,21 @@
         <v>10594</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="13" customFormat="1" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -2469,18 +2469,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
@@ -2489,22 +2489,22 @@
         <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="16.5">
       <c r="A11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -2517,18 +2517,18 @@
         <v>45474</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -2540,15 +2540,15 @@
         <v>640000</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -2557,15 +2557,15 @@
         <v>16</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" ht="16.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" ht="16.5">
       <c r="A14" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -2576,18 +2576,18 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -2596,21 +2596,21 @@
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="31.2">
-      <c r="A16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>12</v>
@@ -2619,41 +2619,41 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
@@ -2662,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2679,15 +2679,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2716,13 +2716,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2731,27 +2731,27 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2768,15 +2768,15 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2805,13 +2805,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2820,21 +2820,21 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -2854,15 +2854,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2889,18 +2889,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
@@ -2909,15 +2909,15 @@
         <v>10</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1">
       <c r="A3" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
@@ -2929,18 +2929,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1">
       <c r="A4" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>14</v>
@@ -2949,18 +2949,18 @@
         <v>16</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -2969,81 +2969,81 @@
         <v>15</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="9">
         <v>45447</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5">
+      <c r="A8" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.2">
-      <c r="A8" s="32" t="s">
-        <v>183</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -3051,39 +3051,39 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="8">
         <v>640000</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3091,17 +3091,17 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="E20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3119,15 +3119,15 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3153,18 +3153,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.75">
       <c r="A2" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
@@ -3173,18 +3173,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
@@ -3193,44 +3193,44 @@
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
@@ -3239,20 +3239,20 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
@@ -3265,15 +3265,15 @@
         <v>640000</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>9</v>
@@ -3283,18 +3283,18 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3312,14 +3312,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
@@ -3347,18 +3347,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -3367,18 +3367,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -3387,18 +3387,18 @@
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -3407,18 +3407,18 @@
         <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -3427,18 +3427,18 @@
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -3450,18 +3450,18 @@
         <v>45447</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -3473,18 +3473,18 @@
         <v>45451</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -3496,15 +3496,15 @@
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -3528,7 +3528,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3545,15 +3545,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3579,18 +3579,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -3599,87 +3599,87 @@
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="21"/>

--- a/資料庫表格_final.xlsx
+++ b/資料庫表格_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malaguagua\Desktop\專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\030\Desktop\Artists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BAC56D-6E95-4A7C-AE27-72E2D7D1C81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5381CCA-9BD7-429D-A74F-433F42B1B37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="2" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="10" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="202">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CN0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>販售日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,10 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COL_DPRICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COL_INTRODUCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,10 +663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AK_THEME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,10 +699,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TE0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,10 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PE0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>位置編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,6 +828,18 @@
   </si>
   <si>
     <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COL_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COL00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE00001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1430,18 +1422,18 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.625" customWidth="1"/>
-    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1467,18 +1459,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1495,7 +1487,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>35</v>
@@ -1514,12 +1506,12 @@
         <v>54</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>41</v>
@@ -1536,12 +1528,12 @@
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -1558,18 +1550,18 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -1582,18 +1574,18 @@
         <v>53</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1">
       <c r="A7" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>15</v>
@@ -1603,21 +1595,21 @@
         <v>10594</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -1627,21 +1619,21 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -1649,15 +1641,15 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>42</v>
@@ -1676,10 +1668,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1690,18 +1682,18 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1712,21 +1704,21 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
@@ -1739,12 +1731,12 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.2">
       <c r="A14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>40</v>
@@ -1765,7 +1757,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>45</v>
@@ -1778,18 +1770,18 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>43</v>
@@ -1808,7 +1800,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1826,14 +1818,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1860,18 +1852,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1888,7 +1880,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>59</v>
@@ -1903,12 +1895,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>60</v>
@@ -1926,7 +1918,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>67</v>
@@ -1946,7 +1938,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>61</v>
@@ -1965,12 +1957,12 @@
         <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>62</v>
@@ -1989,12 +1981,12 @@
         <v>54</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>68</v>
@@ -2010,15 +2002,15 @@
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.6">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -2030,7 +2022,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
@@ -2060,18 +2052,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAADB46-268D-44AC-96C4-DBC8DAA2CEB7}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2098,18 +2090,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2126,13 +2118,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -2147,13 +2139,13 @@
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
@@ -2168,10 +2160,10 @@
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -2185,12 +2177,12 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>31</v>
@@ -2207,12 +2199,12 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>69</v>
@@ -2242,10 +2234,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2256,19 +2248,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116F66E-B285-4978-8D07-6049E982F6A1}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2295,18 +2287,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2315,15 +2307,15 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.2">
       <c r="A3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>35</v>
@@ -2341,12 +2333,12 @@
         <v>54</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>58</v>
@@ -2361,12 +2353,12 @@
         <v>27</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>41</v>
@@ -2381,12 +2373,12 @@
         <v>17</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.2">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -2401,18 +2393,18 @@
         <v>18</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2">
       <c r="A7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -2424,18 +2416,18 @@
         <v>53</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="16.2">
       <c r="A8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -2448,18 +2440,18 @@
         <v>92</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="13" customFormat="1" ht="16.2">
       <c r="A9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -2472,18 +2464,18 @@
         <v>91</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.2">
       <c r="A10" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>164</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -2493,15 +2485,15 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="16.2">
       <c r="A11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>94</v>
@@ -2520,12 +2512,12 @@
         <v>54</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
-        <v>124</v>
+      <c r="A12" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>29</v>
@@ -2540,12 +2532,12 @@
         <v>640000</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>42</v>
@@ -2560,12 +2552,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="16.5">
+    <row r="14" spans="1:8" customFormat="1" ht="16.2">
       <c r="A14" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -2576,15 +2568,15 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.2">
       <c r="A15" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>38</v>
@@ -2602,12 +2594,12 @@
         <v>39</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.2">
       <c r="A16" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>40</v>
@@ -2625,9 +2617,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.2">
       <c r="A17" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>45</v>
@@ -2645,12 +2637,12 @@
         <v>55</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>43</v>
@@ -2676,18 +2668,18 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2716,13 +2708,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2731,7 +2723,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
@@ -2739,13 +2731,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -2765,18 +2757,18 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2805,13 +2797,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2820,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
@@ -2828,13 +2820,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -2854,15 +2846,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2889,18 +2881,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
@@ -2917,7 +2909,7 @@
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1">
       <c r="A3" s="34" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
@@ -2937,7 +2929,7 @@
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1">
       <c r="A4" s="34" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>74</v>
@@ -2955,9 +2947,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.2">
       <c r="A5" s="32" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>75</v>
@@ -2972,15 +2964,15 @@
         <v>28</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.2">
       <c r="A6" s="32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
@@ -2995,12 +2987,12 @@
         <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2">
       <c r="A7" s="32" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>50</v>
@@ -3012,12 +3004,12 @@
         <v>15</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.2">
       <c r="A8" s="32" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>72</v>
@@ -3029,12 +3021,12 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="32" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>48</v>
@@ -3051,7 +3043,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>49</v>
@@ -3066,12 +3058,12 @@
         <v>640000</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>43</v>
@@ -3091,7 +3083,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -3116,18 +3108,18 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3153,18 +3145,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.75">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.6">
       <c r="A2" s="31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
@@ -3181,7 +3173,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="32" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>76</v>
@@ -3200,12 +3192,12 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -3227,7 +3219,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>87</v>
@@ -3242,14 +3234,14 @@
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="32" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>57</v>
@@ -3270,7 +3262,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="32" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>43</v>
@@ -3289,12 +3281,12 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="33" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3312,14 +3304,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
@@ -3347,18 +3339,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -3373,9 +3365,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.2">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>59</v>
@@ -3390,12 +3382,12 @@
         <v>28</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2">
       <c r="A4" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>60</v>
@@ -3410,12 +3402,12 @@
         <v>28</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>63</v>
@@ -3430,12 +3422,12 @@
         <v>64</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.2">
       <c r="A6" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>61</v>
@@ -3453,12 +3445,12 @@
         <v>54</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2">
       <c r="A7" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>62</v>
@@ -3476,12 +3468,12 @@
         <v>54</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>68</v>
@@ -3496,15 +3488,15 @@
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -3516,7 +3508,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
@@ -3542,18 +3534,18 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3579,18 +3571,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -3607,13 +3599,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -3626,18 +3618,18 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>16</v>
@@ -3649,18 +3641,18 @@
         <v>86</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -3669,14 +3661,14 @@
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>70</v>
